--- a/Data/EC/NIT-9006594039.xlsx
+++ b/Data/EC/NIT-9006594039.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFCD5B2-2A3F-496F-912A-0B76BCE7C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{569750FE-B1F6-468F-8D8D-F847E04008B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5FB6048-8F65-46C1-B4B0-F4F94C08B89D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10937E55-7443-490E-A103-26BF6576EBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,172 +71,172 @@
     <t>YAIR IVAN MEZA MARRIAGA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1003191558</t>
+  </si>
+  <si>
+    <t>CESAR LUIS PACHECO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1003191558</t>
-  </si>
-  <si>
-    <t>CESAR LUIS PACHECO RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -348,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0213619D-0BF2-865E-C115-A29D3CD7B35A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2E8397-FCC1-0162-31B0-CA64A33FF694}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46E9D5-AC40-4AC8-8B54-B2D4E498F630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92F539B-2037-4E0A-A001-B6BF222CFC20}">
   <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>27580</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1222,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1239,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1331,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1360,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1377,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1406,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1423,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1452,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1469,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1515,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1561,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1607,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1653,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1682,10 +1682,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1699,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,10 +1728,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1745,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1774,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1791,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1820,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>27580</v>
@@ -1837,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>27580</v>
@@ -1883,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>27580</v>
@@ -1929,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1958,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>27580</v>
@@ -1975,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>27580</v>
@@ -2021,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2050,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>27580</v>
@@ -2067,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2096,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>27580</v>
@@ -2113,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>27580</v>
@@ -2159,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2188,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>27580</v>
@@ -2205,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2234,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>27580</v>
@@ -2251,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2280,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>27580</v>
@@ -2297,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>27580</v>
@@ -2343,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2372,10 +2372,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2389,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>27580</v>
+        <v>27578</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>19305</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2435,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>27578</v>
@@ -2458,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2481,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>27578</v>
@@ -2504,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2527,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>27578</v>
@@ -2550,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>27578</v>
@@ -2596,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2619,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>27578</v>
@@ -2642,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2665,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>27578</v>
@@ -2688,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2711,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>27578</v>
@@ -2734,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2757,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>27578</v>
@@ -2780,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2803,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>27578</v>
@@ -2826,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2849,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>27578</v>
@@ -2872,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2895,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>27578</v>
@@ -2918,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2941,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>27578</v>
@@ -2964,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2987,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>27578</v>
@@ -3010,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3033,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>27578</v>
@@ -3056,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3079,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>27578</v>
@@ -3102,19 +3102,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3125,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>27578</v>
@@ -3148,19 +3148,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3171,13 +3171,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
         <v>27578</v>
@@ -3194,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3217,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
         <v>27578</v>
@@ -3240,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3263,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
         <v>27578</v>
@@ -3286,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
         <v>27578</v>
@@ -3332,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3355,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
         <v>27578</v>
@@ -3378,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3401,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
         <v>27578</v>
@@ -3424,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3447,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F115" s="18">
         <v>27578</v>
@@ -3470,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3493,13 +3493,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
         <v>27578</v>
@@ -3516,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3539,13 +3539,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F119" s="18">
         <v>27578</v>
@@ -3562,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3585,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F121" s="18">
         <v>27578</v>
@@ -3608,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E122" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>21874</v>
       </c>
       <c r="G122" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3631,16 +3631,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D123" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="F123" s="24">
-        <v>27578</v>
+        <v>19305</v>
       </c>
       <c r="G123" s="24">
         <v>689455</v>
